--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sync/code/robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75935D4C-A708-054B-981A-F48FF849EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66261DED-CF62-4545-9168-03A615CD714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{77E964D0-BA43-6A47-9925-85BA866A6EF2}"/>
+    <workbookView minimized="1" xWindow="6260" yWindow="600" windowWidth="22360" windowHeight="16940" xr2:uid="{77E964D0-BA43-6A47-9925-85BA866A6EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="legs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Part</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>depth (z)</t>
+  </si>
+  <si>
+    <t>1.00 inch</t>
+  </si>
+  <si>
+    <t>28.25 inch</t>
+  </si>
+  <si>
+    <t>shaft hole</t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E756FA00-056B-7145-B963-35D041BA96C6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,6 +438,27 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>SUM(1-0.04)</f>
+        <v>0.96</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
